--- a/decArgo_soft/soft/_argo_decoder_versions.xlsx
+++ b/decArgo_soft/soft/_argo_decoder_versions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="101">
   <si>
     <t>Version name</t>
   </si>
@@ -93,9 +93,6 @@
     <t>001e</t>
   </si>
   <si>
-    <t>06/17/2015</t>
-  </si>
-  <si>
     <t>Mail (17/06/2015 12:17)</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
   </si>
   <si>
     <t>001f</t>
-  </si>
-  <si>
-    <t>06/24/2015</t>
   </si>
   <si>
     <t>P
@@ -159,24 +153,15 @@
     <t>002b</t>
   </si>
   <si>
-    <t>07/16/2015</t>
-  </si>
-  <si>
     <t>P
 finalize_trajectory_data_ir_sbd.m
 init_default_values.m</t>
   </si>
   <si>
-    <t>Mail (07/16/2015 14:59)</t>
-  </si>
-  <si>
     <t>Delete multiple N_MEASUREMENT and N_CYCLE records for a given cycle (anomaly encountered with float 6901038 #272: the float transmitted twice the TECH and PARAM messages).</t>
   </si>
   <si>
     <t>002c</t>
-  </si>
-  <si>
-    <t>07/17/2015</t>
   </si>
   <si>
     <t>P
@@ -184,9 +169,6 @@
 print_tech_data_in_csv_file_201_203.m
 print_tech_data_in_csv_file_202.m
 init_default_values.m</t>
-  </si>
-  <si>
-    <t>Mail (07/17/2015 16:18)</t>
   </si>
   <si>
     <t>Surface pressure offset of Arvor Deep floats (decId 201, 202 and 203) is coded in two's complement.</t>
@@ -207,9 +189,6 @@
  - cFormat = %.6f for parameters DOWN_IRRADIANCE380 , DOWN_IRRADIANCE412 and DOWN_IRRADIANCE490.</t>
   </si>
   <si>
-    <t>Mail (09/02/2015 15:42)</t>
-  </si>
-  <si>
     <t>002e</t>
   </si>
   <si>
@@ -218,9 +197,6 @@
 init_default_values.m</t>
   </si>
   <si>
-    <t>Mail (09/04/2015 09:37)</t>
-  </si>
-  <si>
     <t>Additionnal correction for point #1 of '002d' (N_PARAM).</t>
   </si>
   <si>
@@ -230,9 +206,6 @@
     <t>P
 decode_prv_data_ir_rudics.m
 init_default_values.m</t>
-  </si>
-  <si>
-    <t>Mail (09/11/2015 09:51)</t>
   </si>
   <si>
     <t>Sensor data array empty due to input SBD file of an unexpected size (float #6901650).</t>
@@ -254,6 +227,211 @@
  - 'comment_on_measurement_code' global attribute added to trajectories
  - MC codes sorted in the trajectories
  - RTQC: test #62 moved to #23</t>
+  </si>
+  <si>
+    <t>003b</t>
+  </si>
+  <si>
+    <t>1- Disable NITRATE processing from APF frame since the 'fitlm' Matlab function is not available yet.
+2- manage Remocean float dysfunction</t>
+  </si>
+  <si>
+    <t>init_float_config_ir_rudics.m
+process_profile_ir_rudics_SUNA_APF.m
+compute_drift_derived_parameters_ir_rudics.m
+compute_drift_derived_parameters_ir_sbd2.m
+compute_profile_derived_parameters_ir_rudics.m
+process_trajectory_data_ir_rudics_sbd2.m
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>Mail (16/07/2015 14:59)</t>
+  </si>
+  <si>
+    <t>Mail (17/07/2015 16:18)</t>
+  </si>
+  <si>
+    <t>Mail (02/09/2015 15:42)</t>
+  </si>
+  <si>
+    <t>Mail (04/09/2015 09:37)</t>
+  </si>
+  <si>
+    <t>Mail (11/09/2015 09:51)</t>
+  </si>
+  <si>
+    <t>Mail (14/01/2016 11:14)</t>
+  </si>
+  <si>
+    <t>003c</t>
+  </si>
+  <si>
+    <t>move_files_ir_rudics.m
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>Mail (18/01/2016 17:47)</t>
+  </si>
+  <si>
+    <t>In RT mode (i.e. with decode_Argo_2_nc_rt), delete the processed Iridium Rudics files (of Remocean floats), i.e. the files are moved to the 'archive' directory only with the DM decoder (decode_provor_2_csv and decode_provor_2_nc).</t>
+  </si>
+  <si>
+    <t>003d</t>
+  </si>
+  <si>
+    <t>read_mail_and_extract_attachment.m
+save_mail_content_and_extract_attachment.m
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>Mail (19/01/2016 11:46)</t>
+  </si>
+  <si>
+    <t>Manage attachment of Iridium SBD mail files (in co_20151217T000434Z_300234060350130_001113_000000_6279.txt, 001114, 001115, 001116 and 001117 attachment file name is provided without '"' (Ex: filename=300234060350130_001113.sbd;)).</t>
+  </si>
+  <si>
+    <t>003e</t>
+  </si>
+  <si>
+    <t>Mail (26/01/2016 17:32)</t>
+  </si>
+  <si>
+    <t>process_profile_ir_rudics_OCR_mean_stdMed.m
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>A variable, used in a warning message was not initialized.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print_data_in_csv_file_ECO3_mean_stdMed_105_to_107.m       
+print_data_in_csv_file_ECO3_mean_stdMed_108_109.m          
+print_data_in_csv_file_OXY_mean_stdMed_301.m               
+print_data_in_csv_file_OXY_mean_stdMed_302_303.m           
+print_data_in_csv_file_ir_rudics_CROVER_mean_stdMed.m      
+print_data_in_csv_file_ir_rudics_OCR_mean_stdMed.m         
+print_data_in_csv_file_ir_rudics_OXY_mean_stdMed.m         
+print_data_in_csv_file_ir_rudics_SUNA_mean_stdMed.m        
+print_data_in_csv_file_ir_rudics_sbd2_CTD_mean_stdMed.m    
+print_data_in_csv_file_ir_rudics_sbd2_FLNTU_mean_stdMed.m  
+print_data_in_csv_file_ir_sbd2_CTD_mean_stdMed.m           
+print_data_in_csv_file_ir_sbd2_CYCLOPS_mean_stdMed.m       
+print_data_in_csv_file_ir_sbd2_FLBB_mean_stdMed.m          
+print_data_in_csv_file_ir_sbd2_SEAPOINT_mean_stdMed.m      
+process_profile_ECO3_mean_stdMed_105_to_107.m              
+process_profile_ECO3_mean_stdMed_108_109.m                 
+process_profile_ir_rudics_CROVER_mean_stdMed.m             
+process_profile_ir_rudics_CTD_mean_stdMed.m                
+process_profile_ir_rudics_FLNTU_mean_stdMed.m              
+process_profile_ir_rudics_OCR_mean_stdMed.m                
+process_profile_ir_rudics_OXY_mean_stdMed.m                
+process_profile_ir_rudics_SUNA_mean_stdMed.m               
+process_profile_ir_sbd2_CTD_mean_stdMed.m                  
+process_profile_ir_sbd2_CYCLOPS_mean_stdMed.m              
+process_profile_ir_sbd2_FLBB_mean_stdMed.m                 
+process_profile_ir_sbd2_FLNTU_mean_stdMed.m                
+process_profile_ir_sbd2_OXY_mean_stdMed_301.m              
+process_profile_ir_sbd2_OXY_mean_stdMed_302_303.m          
+process_profile_ir_sbd2_SEAPOINT_mean_stdMed.m             
+init_default_values.m  </t>
+  </si>
+  <si>
+    <t>003f</t>
+  </si>
+  <si>
+    <t>Mail (28/01/2016 08:40)</t>
+  </si>
+  <si>
+    <t>Anomaly when assigning mean data with stdev+median associated data when multiple levels have the same pressure.</t>
+  </si>
+  <si>
+    <t>parse_input_param_iridium_sbd2_rt.m
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>003g</t>
+  </si>
+  <si>
+    <t>Mail (04/02/2016 16:20)</t>
+  </si>
+  <si>
+    <t>Bug while using 'decode_argo_2_nc_rt' for an Arvor CM which shared its IMEI with another float managed by the decoder.</t>
+  </si>
+  <si>
+    <t>003h</t>
+  </si>
+  <si>
+    <t>load_processed_data_ir_rudics_sbd2.m
+save_processed_data_ir_rudics_sbd2.m
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>Mail (05/02/2016 10:52)</t>
+  </si>
+  <si>
+    <t>Reduce the size of the ".mat" files stored by the Remocean decoder to save already processed data.</t>
+  </si>
+  <si>
+    <t>003i</t>
+  </si>
+  <si>
+    <t>_config_param_name_201.csv
+_config_param_name_202.csv
+_config_param_name_201.json
+_config_param_name_202.json
+_config_param_name_203.json
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>Mail (17/02/2016 09:55)</t>
+  </si>
+  <si>
+    <t>Correct the typo in the CONFIG_OptodePowerAcquisitionMode_NUMBER configuration parameter name ("NUMBER." instead of "NUMBER") of the Arvor Deep floats.</t>
+  </si>
+  <si>
+    <t>003j</t>
+  </si>
+  <si>
+    <t>decode_prv_data_ir_sbd_205.m
+is_buffer_completed_ir_sbd.m
+process_trajectory_data_204_205.m
+set_float_config_ir_sbd.m
+update_mail_data_ir_sbd.m
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>Mail (22/02/2016 15:06)</t>
+  </si>
+  <si>
+    <t>Manage second Iridium session of Arvor Ir floats (PM16 parameter is immediatly considered by the float, all others  parameters are considered the next cycle).</t>
+  </si>
+  <si>
+    <t>003k</t>
+  </si>
+  <si>
+    <t>decode_provor_argos_data.m
+process_trajectory_data_30.m
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>Mail (25/02/2016 09:11)</t>
+  </si>
+  <si>
+    <t>First stabilization pressure are not correctly reported in the TRAJ files of Arvor ARN floats.</t>
+  </si>
+  <si>
+    <t>004a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_201602291_004a</t>
+  </si>
+  <si>
+    <t>Based on' 003k' version: 
+ - 6 new Apex decoders implemented
+ - in air DOXY measurement stored in the trajectory (PPOX_DOXY parameter)
+ - RTQC: profile RTQC updated, trajectory RTQC added
+ - the CLS satellite pass headers are checked and corrected if needed
+ - new tools created to update Argo format in existing V3.1 files</t>
   </si>
 </sst>
 </file>
@@ -654,13 +832,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C25" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,7 +890,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="5">
-        <v>42100</v>
+        <v>42158</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>10</v>
@@ -729,7 +907,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="5">
-        <v>42222</v>
+        <v>42163</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>14</v>
@@ -746,7 +924,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="5">
-        <v>42344</v>
+        <v>42167</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>18</v>
@@ -762,168 +940,357 @@
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>22</v>
+      <c r="B6" s="5">
+        <v>42172</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5">
+        <v>42179</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="5">
+        <v>42187</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="5">
-        <v>42096</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="14" customFormat="1" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="10">
-        <v>42223</v>
+        <v>42193</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="5">
+        <v>42201</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="B11" s="5">
+        <v>42202</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B12" s="5">
-        <v>42044</v>
+        <v>42249</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5">
-        <v>42103</v>
+        <v>42251</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B14" s="5">
-        <v>42103</v>
+        <v>42258</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="14" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="B15" s="10">
+        <v>42349</v>
+      </c>
       <c r="C15" s="11" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="5">
+        <v>42383</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>61</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="5">
+        <v>42387</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="5">
+        <v>42388</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="5">
+        <v>42395</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="5">
+        <v>42397</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="5">
+        <v>42404</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="5">
+        <v>42405</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="5">
+        <v>42417</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="5">
+        <v>42422</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="5">
+        <v>42425</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="14" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="10">
+        <v>42429</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/decArgo_soft/soft/_argo_decoder_versions.xlsx
+++ b/decArgo_soft/soft/_argo_decoder_versions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="157">
   <si>
     <t>Version name</t>
   </si>
@@ -432,6 +432,244 @@
  - RTQC: profile RTQC updated, trajectory RTQC added
  - the CLS satellite pass headers are checked and corrected if needed
  - new tools created to update Argo format in existing V3.1 files</t>
+  </si>
+  <si>
+    <t>004b</t>
+  </si>
+  <si>
+    <t>process_sensor_tech_data_ir_rudics_OCR.m
+process_sensor_tech_data_ir_sbd2_FLBB.m
+create_nc_multi_prof_b_file_3_1.m
+create_nc_mono_prof_b_files_3_1.m
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>Mail (07/03/2016 17:17)
+Mail (08/03/2016 14:23)
+Mail (08/03/2016 15:34)</t>
+  </si>
+  <si>
+    <t>Typo ("w") in process_sensor_tech_data_ir_rudics_OCR.m and process_sensor_tech_data_ir_sbd2_FLBB.m.
+"Adjusted values are provided in the core profile file" added in SCIENTIFIC_CALIB_COMMENT of PRES in B files =&gt; bug for FLBB (no profile in #1 and #2).</t>
+  </si>
+  <si>
+    <t>07/03/2016
+08/03/2016</t>
+  </si>
+  <si>
+    <t>004c</t>
+  </si>
+  <si>
+    <t>add_profile_date_and_location_201_to_209.m                 
+add_profile_date_and_location_ir_sbd2.m                    
+compute_profile_location_from_iridium_locations_ir_sbd.m   
+compute_profile_location_from_iridium_locations_ir_sbd2.m  
+create_nc_mono_prof_b_files_3_1.m                          
+create_nc_mono_prof_c_files_3_1.m                          
+decode_provor_iridium_sbd.m                                
+fill_empty_profile_locations_ir_sbd.m                      
+get_nc_profile_level.m                                     
+get_profile_init_struct.m                                  
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>Mail (15/03/2016 15:14)</t>
+  </si>
+  <si>
+    <t>Manage nc mono-profile file update for Iridium (SBD or Rudics) floats.
+Particularly when the data of a given cycle is in two different log files.</t>
+  </si>
+  <si>
+    <t>004d</t>
+  </si>
+  <si>
+    <t>get_netcdf_param_attributes_3_1.m                               
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>Mail (18/03/2016 10:22)</t>
+  </si>
+  <si>
+    <t>&lt;PARAM&gt;_STD 'valid_min' and 'valid_max' attributes temporarily set (until a new version of the checker can accept files where these attributes are missing).</t>
+  </si>
+  <si>
+    <t>004e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decode_provor_iridium_sbd.m    
+decode_provor_iridium_sbd2.m   
+delete_duplicated_sbd_files.m  
+move_files_ir_sbd.m            
+init_default_values.m          
+</t>
+  </si>
+  <si>
+    <t>Mail (22/03/2016 17:27)</t>
+  </si>
+  <si>
+    <t>For the Iridium SBD decoders, process the buffer contents even when the last processed mail has no attachment .</t>
+  </si>
+  <si>
+    <t>004f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get_netcdf_param_attributes_3_1.m            
+init_default_values.m          
+</t>
+  </si>
+  <si>
+    <t>Mail (01/04/2016 14:23)</t>
+  </si>
+  <si>
+    <t>PPOX_DOXY:valid_max set to 5000.</t>
+  </si>
+  <si>
+    <t>004g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parse_rsync_log_ir_rudics.m
+create_float_config_apx_argos.m
+create_nc_meta_file_3_1.m
+init_default_values.m          
+</t>
+  </si>
+  <si>
+    <t>1 - Decoder Iridium Rudics: only lines with the 'f+++++++++' pattern are considered in the rsynclog files.
+2 - Apex decoder: if no data have been received, create a configuration from the JSON file contents =&gt; we generate a TRAJ and a META file (to illustrate that the float is managed, even if it has not worked correctly).</t>
+  </si>
+  <si>
+    <t>Mail (01/04/2016 15:19)</t>
+  </si>
+  <si>
+    <t>004h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compute_prv_dates_30.m
+set_float_config_argos.m
+store_tech2_data_for_nc_30.m
+init_default_values.m          
+</t>
+  </si>
+  <si>
+    <t>Mail (05/04/2016 17:57)</t>
+  </si>
+  <si>
+    <t>1 - Correctly  manage alternate profile depth.
+2 - Check PET and DPST consistency when PARK == PROF (due to different resolutions the dates can be inconsistent).</t>
+  </si>
+  <si>
+    <t>004i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_default_primary_profile.m
+decode_apex.m
+process_profile_ir_rudics_OXY_raw.m
+init_default_values.m          
+</t>
+  </si>
+  <si>
+    <t>Mail (15/04/2016 10:58)</t>
+  </si>
+  <si>
+    <t>1 - Manage Remoceans 6901472 and 6901473 incoherent data.
+2 - Correct the Apex decoder (when used in 'profile' mode, the TECH and CONF NetCDF label names were not initialized).</t>
+  </si>
+  <si>
+    <t>004j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update_mail_data_ir_sbd.m
+add_profile_date_and_location_ir_sbd2.m
+add_profile_date_and_location_201_to_209_2001_2002.m
+init_default_values.m          
+</t>
+  </si>
+  <si>
+    <t>Mail (25/04/2016 11:44)</t>
+  </si>
+  <si>
+    <t>Correctly set the Iridium mails to associated cycle numbers so that the needed Irdium date and location is computed from correct Iridum mail data.</t>
+  </si>
+  <si>
+    <t>004k</t>
+  </si>
+  <si>
+    <t>Mail (26/04/2016 15:10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decode_provor_argos_data.m
+create_prv_drift_30.m
+init_default_values.m          
+</t>
+  </si>
+  <si>
+    <t>Correctly manage missing tech1 while tech2 received for decId #30.</t>
+  </si>
+  <si>
+    <t>004l</t>
+  </si>
+  <si>
+    <t>Mail (10/05/2016 15:13)</t>
+  </si>
+  <si>
+    <t>Update pressure sensor offset tech label for all NKE float versions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all _techParamNames of NKE float versions
+init_default_values.m          
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compute_DOWN_IRRADIANCE380_105_to_109.m                    
+compute_DOWN_IRRADIANCE412_105_to_109.m                    
+compute_DOWN_IRRADIANCE490_105_to_109.m                    
+num_2_str.m                                                
+print_sensor_tech_data_in_csv_file_ECO3_105_to_107.m       
+print_sensor_tech_data_in_csv_file_ECO3_108_109.m          
+print_sensor_tech_data_in_csv_file_ir_rudics_OCR.m         
+print_sensor_tech_data_in_csv_file_ir_rudics_sbd2_FLNTU.m  
+print_sensor_tech_data_in_csv_file_ir_sbd2_FLBB.m
+init_default_values.m </t>
+  </si>
+  <si>
+    <t>004m</t>
+  </si>
+  <si>
+    <t>Mail (13/05/2016 16:55)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DOWN_IRRADIANCE_xxx values should be /100.</t>
+  </si>
+  <si>
+    <t>004n</t>
+  </si>
+  <si>
+    <t>_config_param_name_105.csv
+_config_param_name_105.json
+_config_param_name_106.json
+_config_param_name_107.json
+_config_param_name_109.json
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>Mail (19/05/2016 09:13)</t>
+  </si>
+  <si>
+    <t>Change 'umole/L' to 'umol/L' in the SUNA configuration labels.</t>
+  </si>
+  <si>
+    <t>005a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20160628_005a</t>
+  </si>
+  <si>
+    <t>Based on' 004n' version: 
+ - 1 new NOVA/DOVA decoder (20 floats)
+ - DO processing reviewed (new processing for DOXY and PPOX_DOXY parameters) + PREDEPLOYMENT_CALIB_* information filled
+ - few corrections on Traj data (to be compliant with first version of the traj checker)
+ - NITRATE processed from transmitted spectrum + PREDEPLOYMENT_CALIB_* information filled</t>
   </si>
 </sst>
 </file>
@@ -832,20 +1070,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C25" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D39" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="20.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="108.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="3"/>
@@ -1106,7 +1344,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
@@ -1140,7 +1378,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>66</v>
       </c>
@@ -1157,7 +1395,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -1291,6 +1529,244 @@
       </c>
       <c r="E26" s="13" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="5">
+        <v>42444</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="5">
+        <v>42447</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="5">
+        <v>42451</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="5">
+        <v>42461</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="5">
+        <v>42461</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="5">
+        <v>42465</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="5">
+        <v>42475</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="5">
+        <v>42485</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="5">
+        <v>42486</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="5">
+        <v>42500</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="5">
+        <v>42503</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="5">
+        <v>42509</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="10">
+        <v>42549</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/decArgo_soft/soft/_argo_decoder_versions.xlsx
+++ b/decArgo_soft/soft/_argo_decoder_versions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="173">
   <si>
     <t>Version name</t>
   </si>
@@ -670,6 +670,64 @@
  - DO processing reviewed (new processing for DOXY and PPOX_DOXY parameters) + PREDEPLOYMENT_CALIB_* information filled
  - few corrections on Traj data (to be compliant with first version of the traj checker)
  - NITRATE processed from transmitted spectrum + PREDEPLOYMENT_CALIB_* information filled</t>
+  </si>
+  <si>
+    <t>004o</t>
+  </si>
+  <si>
+    <t>store_gps_data_ir_sbd.m
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>Est locations of Arvor Deep floats are considered as not valid (and then not reported in the traj file).</t>
+  </si>
+  <si>
+    <t>Mail (01/07/2016 16:22)</t>
+  </si>
+  <si>
+    <t>005b</t>
+  </si>
+  <si>
+    <t>005c</t>
+  </si>
+  <si>
+    <t>get_config_file_number.m
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>Mail (07/07/2016 17:37)</t>
+  </si>
+  <si>
+    <t>To choose between multiple configuration files for Nova float.</t>
+  </si>
+  <si>
+    <t>005d</t>
+  </si>
+  <si>
+    <t>create_nc_mono_prof_b_files_3_1.m
+update_meta_data.m
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>Mail (08/07/2016 14:54)</t>
+  </si>
+  <si>
+    <t>Bug when checking if Nova profile file should be updated (Matlab 'dir' function used in a .m file where a variable named 'dir' is already present).
+Do not add DO parameters for V5.63 floats.
+Add POSITIONING_SYSTEM = 'IRIDIUM' to all floats with  POSITIONING_SYSTEM = 'GPS' and with an Iridium SBD transmission (i.e. all but French Remocean floats).</t>
+  </si>
+  <si>
+    <t>006a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20160708_006a</t>
+  </si>
+  <si>
+    <t>Based on' 005d' version: 
+ - 1 new Arvor ARN Iridium (5.43) decoder (7 floats)
+ - 1 new Arvor ARN DO Argos (4.54) decoder (2 floats)
+ - Traj RTQC: test #22 added to IN AIR measurements (MC=1099)</t>
   </si>
 </sst>
 </file>
@@ -1070,13 +1128,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D39" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E41" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomRight" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1085,7 +1143,7 @@
     <col min="2" max="2" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.5546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="20.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="108.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="207" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
@@ -1752,21 +1810,106 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
+    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" s="5">
+        <v>42552</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B41" s="10">
         <v>42549</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C41" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E41" s="13" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="5">
+        <v>42552</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" s="5">
+        <v>42558</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" s="5">
+        <v>42559</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" s="10">
+        <v>42559</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
